--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
@@ -618,16 +618,16 @@
         <v>1896</v>
       </c>
       <c r="C4" t="n">
-        <v>12.81645569620253</v>
+        <v>10.9704641350211</v>
       </c>
       <c r="D4" t="n">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>37.65182186234818</v>
+        <v>33.19838056680162</v>
       </c>
       <c r="G4" t="n">
         <v>176</v>
@@ -639,22 +639,22 @@
         <v>66</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>0.945054945054945</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6963562753036437</v>
+        <v>0.7206477732793523</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8018648018648019</v>
+        <v>0.8298368298368298</v>
       </c>
       <c r="N4" t="n">
-        <v>77.69565856442172</v>
+        <v>85.51798567633008</v>
       </c>
       <c r="O4" t="n">
-        <v>36.56332617599782</v>
+        <v>38.81807707875777</v>
       </c>
     </row>
     <row r="5">
@@ -667,16 +667,16 @@
         <v>856</v>
       </c>
       <c r="C5" t="n">
-        <v>20.32710280373832</v>
+        <v>18.22429906542056</v>
       </c>
       <c r="D5" t="n">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E5" t="n">
         <v>117</v>
       </c>
       <c r="F5" t="n">
-        <v>29.91452991452991</v>
+        <v>24.78632478632479</v>
       </c>
       <c r="G5" t="n">
         <v>101</v>
@@ -688,22 +688,22 @@
         <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.926605504587156</v>
+        <v>0.9724770642201835</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8938053097345132</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="N5" t="n">
-        <v>73.29334972540855</v>
+        <v>86.86635267489982</v>
       </c>
       <c r="O5" t="n">
-        <v>49.06069673640879</v>
+        <v>58.54576295446176</v>
       </c>
     </row>
     <row r="6">
@@ -716,16 +716,16 @@
         <v>976</v>
       </c>
       <c r="C6" t="n">
-        <v>23.66803278688525</v>
+        <v>20.69672131147541</v>
       </c>
       <c r="D6" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>54.76190476190477</v>
+        <v>46.82539682539682</v>
       </c>
       <c r="G6" t="n">
         <v>97</v>
@@ -737,22 +737,22 @@
         <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="N6" t="n">
-        <v>55.49195901215204</v>
+        <v>87.31652235409665</v>
       </c>
       <c r="O6" t="n">
-        <v>36.73124895485515</v>
+        <v>45.31507279775872</v>
       </c>
     </row>
     <row r="7">
@@ -765,16 +765,16 @@
         <v>1259</v>
       </c>
       <c r="C7" t="n">
-        <v>13.18506751389992</v>
+        <v>10.96108022239873</v>
       </c>
       <c r="D7" t="n">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
         <v>178</v>
       </c>
       <c r="F7" t="n">
-        <v>37.07865168539326</v>
+        <v>32.58426966292135</v>
       </c>
       <c r="G7" t="n">
         <v>124</v>
@@ -786,22 +786,22 @@
         <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9635036496350365</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7415730337078652</v>
+        <v>0.7696629213483146</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8380952380952381</v>
+        <v>0.8698412698412699</v>
       </c>
       <c r="N7" t="n">
-        <v>80.02405270795002</v>
+        <v>87.18390223960432</v>
       </c>
       <c r="O7" t="n">
-        <v>35.4929584001544</v>
+        <v>37.2538598746392</v>
       </c>
     </row>
     <row r="8">
@@ -814,16 +814,16 @@
         <v>1216</v>
       </c>
       <c r="C8" t="n">
-        <v>19.90131578947368</v>
+        <v>13.4046052631579</v>
       </c>
       <c r="D8" t="n">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="E8" t="n">
         <v>164</v>
       </c>
       <c r="F8" t="n">
-        <v>42.68292682926829</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="G8" t="n">
         <v>126</v>
@@ -835,22 +835,22 @@
         <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6707317073170732</v>
+        <v>0.7865853658536586</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7432432432432432</v>
+        <v>0.8716216216216216</v>
       </c>
       <c r="N8" t="n">
-        <v>34.94903544957571</v>
+        <v>78.11752812170022</v>
       </c>
       <c r="O8" t="n">
-        <v>37.59076795183135</v>
+        <v>50.44216798134039</v>
       </c>
     </row>
     <row r="9">
@@ -863,16 +863,16 @@
         <v>1845</v>
       </c>
       <c r="C9" t="n">
-        <v>5.365853658536586</v>
+        <v>4.227642276422764</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
         <v>264</v>
       </c>
       <c r="F9" t="n">
-        <v>19.6969696969697</v>
+        <v>17.04545454545454</v>
       </c>
       <c r="G9" t="n">
         <v>226</v>
@@ -884,22 +884,22 @@
         <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9702127659574468</v>
+        <v>0.9957446808510638</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9138276553106213</v>
+        <v>0.9378757515030061</v>
       </c>
       <c r="N9" t="n">
-        <v>87.34449693427393</v>
+        <v>90.96839850453793</v>
       </c>
       <c r="O9" t="n">
-        <v>63.6826912066017</v>
+        <v>66.22961609889184</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>1706.493506493506</v>
+        <v>1316.556291390729</v>
       </c>
       <c r="D2" t="n">
-        <v>2628</v>
+        <v>1988</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>1347.368421052631</v>
+        <v>673.6842105263157</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>13.65461847389558</v>
+        <v>7.20164609053498</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>19.51219512195122</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="G3" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8481012658227848</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9150326797385621</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="N3" t="n">
-        <v>82.62954173690608</v>
+        <v>83.21900606883158</v>
       </c>
       <c r="O3" t="n">
-        <v>57.83739814009997</v>
+        <v>58.76011523946421</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9704641350211</v>
+        <v>10.75675675675676</v>
       </c>
       <c r="D4" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>33.19838056680162</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="G4" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" t="n">
         <v>222</v>
       </c>
       <c r="I4" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>0.978021978021978</v>
+        <v>0.9790575916230366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7206477732793523</v>
+        <v>0.757085020242915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8298368298368298</v>
+        <v>0.8538812785388128</v>
       </c>
       <c r="N4" t="n">
-        <v>85.51798567633008</v>
+        <v>85.46342732897385</v>
       </c>
       <c r="O4" t="n">
-        <v>38.81807707875777</v>
+        <v>40.50980083155583</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>18.22429906542056</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D5" t="n">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>24.78632478632479</v>
+        <v>23.85321100917431</v>
       </c>
       <c r="G5" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="L5" t="n">
-        <v>0.905982905982906</v>
+        <v>0.9082568807339449</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9380530973451328</v>
+        <v>0.9383886255924171</v>
       </c>
       <c r="N5" t="n">
         <v>86.86635267489982</v>
       </c>
       <c r="O5" t="n">
-        <v>58.54576295446176</v>
+        <v>60.26376621484203</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>20.69672131147541</v>
+        <v>17.27861771058315</v>
       </c>
       <c r="D6" t="n">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>46.82539682539682</v>
+        <v>34.12698412698413</v>
       </c>
       <c r="G6" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H6" t="n">
         <v>123</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9051724137931034</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8677685950413223</v>
       </c>
       <c r="N6" t="n">
-        <v>87.31652235409665</v>
+        <v>87.57177039312572</v>
       </c>
       <c r="O6" t="n">
-        <v>45.31507279775872</v>
+        <v>55.79993778454531</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>10.96108022239873</v>
+        <v>10.66235864297253</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>32.58426966292135</v>
+        <v>29.88505747126437</v>
       </c>
       <c r="G7" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7696629213483146</v>
+        <v>0.7988505747126436</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8698412698412699</v>
+        <v>0.8853503184713376</v>
       </c>
       <c r="N7" t="n">
-        <v>87.18390223960432</v>
+        <v>86.40776124559524</v>
       </c>
       <c r="O7" t="n">
-        <v>37.2538598746392</v>
+        <v>42.15293017023253</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>13.4046052631579</v>
+        <v>12.98366294067068</v>
       </c>
       <c r="D8" t="n">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>26.82926829268293</v>
+        <v>25.32467532467532</v>
       </c>
       <c r="G8" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H8" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.968</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7865853658536586</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8716216216216216</v>
+        <v>0.8673835125448028</v>
       </c>
       <c r="N8" t="n">
-        <v>78.11752812170022</v>
+        <v>78.08600430267255</v>
       </c>
       <c r="O8" t="n">
-        <v>50.44216798134039</v>
+        <v>53.32128767225067</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1845</v>
+        <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>4.227642276422764</v>
+        <v>3.670745272525028</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>17.04545454545454</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="G9" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H9" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9957446808510638</v>
+        <v>0.9831223628691983</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8996138996138996</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9378757515030061</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="N9" t="n">
-        <v>90.96839850453793</v>
+        <v>90.96049168951218</v>
       </c>
       <c r="O9" t="n">
-        <v>66.22961609889184</v>
+        <v>71.06943794797719</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.556291390729</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
+        <v>92</v>
+      </c>
+      <c r="E2" t="n">
         <v>1988</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>1377.483443708609</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
-      </c>
-      <c r="F2" t="n">
-        <v>673.6842105263157</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>128</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>773.6842105263157</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>773.6842105263157</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>7.20164609053498</v>
+        <v>469</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
+        <v>27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.053497942386832</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
-        <v>17.72151898734177</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>65</v>
       </c>
-      <c r="H3" t="n">
-        <v>77</v>
-      </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>17.72151898734177</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.063291139240507</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>82.27848101265823</v>
+      </c>
+      <c r="P3" t="n">
+        <v>94.9367088607595</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.8481012658227848</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9178082191780822</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>83.21900606883158</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>58.76011523946421</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>10.75675675675676</v>
+        <v>1778</v>
       </c>
       <c r="D4" t="n">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.216216216216216</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>32.38866396761134</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>178</v>
       </c>
-      <c r="H4" t="n">
-        <v>222</v>
-      </c>
       <c r="I4" t="n">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
+        <v>29</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37.24696356275304</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22.67206477732794</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>72.06477732793523</v>
+      </c>
+      <c r="P4" t="n">
+        <v>86.63967611336032</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.9790575916230366</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.757085020242915</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.8538812785388128</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>85.46342732897385</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>40.50980083155583</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>17.64705882352941</v>
+        <v>726</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.02002503128911</v>
+      </c>
+      <c r="G5" t="n">
         <v>109</v>
       </c>
-      <c r="F5" t="n">
-        <v>23.85321100917431</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>94</v>
       </c>
-      <c r="H5" t="n">
-        <v>106</v>
-      </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.59633027522936</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.174311926605505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>86.23853211009175</v>
+      </c>
+      <c r="P5" t="n">
+        <v>92.66055045871559</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9705882352941176</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.9082568807339449</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9383886255924171</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>86.86635267489982</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>60.26376621484203</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>17.27861771058315</v>
+        <v>883</v>
       </c>
       <c r="D6" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.12311015118791</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>34.12698412698413</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>107</v>
       </c>
-      <c r="H6" t="n">
-        <v>123</v>
-      </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.936507936507936</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>84.92063492063492</v>
+      </c>
+      <c r="P6" t="n">
+        <v>96.03174603174604</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9051724137931034</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.8677685950413223</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>87.57177039312572</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>55.79993778454531</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>10.66235864297253</v>
+        <v>1187</v>
       </c>
       <c r="D7" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.966074313408724</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>29.88505747126437</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>126</v>
       </c>
-      <c r="H7" t="n">
-        <v>157</v>
-      </c>
       <c r="I7" t="n">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>33.90804597701149</v>
+      </c>
+      <c r="M7" t="n">
+        <v>21.83908045977012</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="P7" t="n">
+        <v>84.48275862068965</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.9928571428571429</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.7988505747126436</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.8853503184713376</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>86.40776124559524</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>42.15293017023253</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>12.98366294067068</v>
+        <v>1106</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
+        <v>79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.6938950988822</v>
+      </c>
+      <c r="G8" t="n">
         <v>154</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>121</v>
+      </c>
+      <c r="I8" t="n">
+        <v>144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
         <v>25.32467532467532</v>
       </c>
-      <c r="G8" t="n">
-        <v>121</v>
-      </c>
-      <c r="H8" t="n">
-        <v>147</v>
-      </c>
-      <c r="I8" t="n">
-        <v>32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>33</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>10.38961038961039</v>
+      </c>
+      <c r="N8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>78.57142857142857</v>
+      </c>
+      <c r="P8" t="n">
+        <v>93.5064935064935</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.968</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.8673835125448028</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>78.08600430267255</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>53.32128767225067</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>3.670745272525028</v>
+        <v>1771</v>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
+        <v>41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.781979977753059</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>231</v>
       </c>
-      <c r="H9" t="n">
-        <v>256</v>
-      </c>
       <c r="I9" t="n">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="J9" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.1969111969112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.088803088803089</v>
+      </c>
+      <c r="N9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>89.18918918918919</v>
+      </c>
+      <c r="P9" t="n">
+        <v>97.29729729729731</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.9831223628691983</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.8996138996138996</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9395161290322581</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>90.96049168951218</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>71.06943794797719</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
@@ -550,16 +550,16 @@
         <v>151</v>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>1988</v>
+        <v>1944</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7748</v>
+        <v>13.1921</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -620,64 +620,64 @@
         <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0905</v>
+        <v>0.0864</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3038</v>
+        <v>0.2785</v>
       </c>
       <c r="M3" t="n">
         <v>0.0506</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8571</v>
+        <v>0.8701</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9851</v>
+        <v>0.9853</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8354</v>
+        <v>0.8481</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9565</v>
+        <v>0.9571</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8462</v>
+        <v>0.859</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9706</v>
+        <v>0.971</v>
       </c>
       <c r="T3" t="n">
         <v>0.8322000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5876</v>
+        <v>0.6247</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,64 +690,64 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0822</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5223</v>
+        <v>0.4939</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2308</v>
+        <v>0.2186</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7379</v>
+        <v>0.751</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8632</v>
+        <v>0.8698</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7409</v>
+        <v>0.7571</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8673</v>
+        <v>0.8779</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7393999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8652</v>
+        <v>0.8738</v>
       </c>
       <c r="T4" t="n">
         <v>0.8546</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4051</v>
+        <v>0.4181</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -775,10 +775,10 @@
         <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -790,28 +790,28 @@
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2202</v>
+        <v>0.211</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0917</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8972</v>
+        <v>0.8981</v>
       </c>
       <c r="O5" t="n">
-        <v>0.96</v>
+        <v>0.9604</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8807</v>
+        <v>0.8899</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9412</v>
+        <v>0.951</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8889</v>
+        <v>0.894</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9505</v>
+        <v>0.9557</v>
       </c>
       <c r="T5" t="n">
         <v>0.8687</v>
@@ -830,64 +830,64 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1112</v>
+        <v>0.1091</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
         <v>18</v>
       </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3095</v>
+        <v>0.2302</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0873</v>
+        <v>0.119</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8372000000000001</v>
+        <v>0.8647</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9391</v>
+        <v>0.9127</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8571</v>
+        <v>0.9127</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9643</v>
+        <v>0.9664</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8471</v>
+        <v>0.888</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9515</v>
+        <v>0.9388</v>
       </c>
       <c r="T6" t="n">
         <v>0.8757</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5759</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0897</v>
+        <v>0.0703</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4655</v>
+        <v>0.3908</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2241</v>
+        <v>0.2184</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7853</v>
+        <v>0.8232</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9014</v>
+        <v>0.906</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7356</v>
+        <v>0.7759</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8366</v>
+        <v>0.8491</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7988</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8678</v>
+        <v>0.8766</v>
       </c>
       <c r="T7" t="n">
         <v>0.8641</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4215</v>
+        <v>0.4834</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,64 +970,64 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1169</v>
+        <v>0.1066</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4221</v>
+        <v>0.3961</v>
       </c>
       <c r="M8" t="n">
         <v>0.1234</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7871</v>
+        <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9242</v>
+        <v>0.9254</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7922</v>
+        <v>0.8052</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9313</v>
+        <v>0.9323</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7896</v>
+        <v>0.8026</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9278</v>
+        <v>0.9288</v>
       </c>
       <c r="T8" t="n">
         <v>0.7809</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5332</v>
+        <v>0.5424</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0378</v>
+        <v>0.0356</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1931</v>
+        <v>0.1622</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0309</v>
+        <v>0.0232</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9004</v>
+        <v>0.9157</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9792</v>
+        <v>0.9835</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9073</v>
+        <v>0.9228</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9874000000000001</v>
+        <v>0.9917</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9038</v>
+        <v>0.9192</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9833</v>
+        <v>0.9876</v>
       </c>
       <c r="T9" t="n">
         <v>0.9096</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7107</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Kosmos/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
         <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>1944</v>
+        <v>1817</v>
       </c>
       <c r="E2" t="n">
-        <v>13.1921</v>
+        <v>12.4333</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0864</v>
+        <v>0.0546</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="C4" t="n">
         <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0618</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1602</v>
+        <v>0.0513</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1091</v>
+        <v>0.0462</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C7" t="n">
         <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0703</v>
+        <v>0.0585</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1066</v>
+        <v>0.0437</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="C9" t="n">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0356</v>
+        <v>0.0308</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
